--- a/Incrementor/Incrementor.Console/bin/Debug/net7.0/Output.xlsx
+++ b/Incrementor/Incrementor.Console/bin/Debug/net7.0/Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrija\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132C5C7E-FF94-40DB-9936-34D9BB023100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{356BB397-859F-485B-8A80-1BA8D4250614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{2890080E-989E-442A-BDC7-AC7AC966A002}"/>
   </x:bookViews>
@@ -388,18 +388,18 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E54"/>
+  <x:dimension ref="A1:G49"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <x:selection activeCell="O43" sqref="O43"/>
+      <x:selection activeCell="I48" sqref="I48"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:cols>
-    <x:col min="1" max="5" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="7" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0">
         <x:v>1.1</x:v>
       </x:c>
@@ -418,8 +418,14 @@
       <x:c r="F1" s="0">
         <x:v>2.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G1" s="0">
+        <x:v>1.4</x:v>
+      </x:c>
+      <x:c r="H1" s="0">
+        <x:v>2.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0">
         <x:v>2.1</x:v>
       </x:c>
@@ -438,8 +444,14 @@
       <x:c r="F2" s="0">
         <x:v>3.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G2" s="0">
+        <x:v>2.4</x:v>
+      </x:c>
+      <x:c r="H2" s="0">
+        <x:v>3.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0">
         <x:v>3.1</x:v>
       </x:c>
@@ -458,8 +470,14 @@
       <x:c r="F3" s="0">
         <x:v>4.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G3" s="0">
+        <x:v>3.4</x:v>
+      </x:c>
+      <x:c r="H3" s="0">
+        <x:v>4.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0">
         <x:v>4.1</x:v>
       </x:c>
@@ -478,8 +496,14 @@
       <x:c r="F4" s="0">
         <x:v>5.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G4" s="0">
+        <x:v>4.4</x:v>
+      </x:c>
+      <x:c r="H4" s="0">
+        <x:v>5.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A5" s="0">
         <x:v>5.1</x:v>
       </x:c>
@@ -498,8 +522,14 @@
       <x:c r="F5" s="0">
         <x:v>6.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G5" s="0">
+        <x:v>5.4</x:v>
+      </x:c>
+      <x:c r="H5" s="0">
+        <x:v>6.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A6" s="0">
         <x:v>6.1</x:v>
       </x:c>
@@ -518,8 +548,14 @@
       <x:c r="F6" s="0">
         <x:v>7.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G6" s="0">
+        <x:v>6.4</x:v>
+      </x:c>
+      <x:c r="H6" s="0">
+        <x:v>7.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A7" s="0">
         <x:v>7.1</x:v>
       </x:c>
@@ -538,8 +574,14 @@
       <x:c r="F7" s="0">
         <x:v>8.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G7" s="0">
+        <x:v>7.4</x:v>
+      </x:c>
+      <x:c r="H7" s="0">
+        <x:v>8.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A8" s="0">
         <x:v>8.1</x:v>
       </x:c>
@@ -558,8 +600,14 @@
       <x:c r="F8" s="0">
         <x:v>9.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G8" s="0">
+        <x:v>8.4</x:v>
+      </x:c>
+      <x:c r="H8" s="0">
+        <x:v>9.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A9" s="0">
         <x:v>9.1</x:v>
       </x:c>
@@ -578,8 +626,14 @@
       <x:c r="F9" s="0">
         <x:v>10.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G9" s="0">
+        <x:v>9.4</x:v>
+      </x:c>
+      <x:c r="H9" s="0">
+        <x:v>10.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A10" s="0">
         <x:v>10.1</x:v>
       </x:c>
@@ -598,8 +652,14 @@
       <x:c r="F10" s="0">
         <x:v>11.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G10" s="0">
+        <x:v>10.4</x:v>
+      </x:c>
+      <x:c r="H10" s="0">
+        <x:v>11.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A11" s="0">
         <x:v>11.1</x:v>
       </x:c>
@@ -618,8 +678,14 @@
       <x:c r="F11" s="0">
         <x:v>12.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G11" s="0">
+        <x:v>11.4</x:v>
+      </x:c>
+      <x:c r="H11" s="0">
+        <x:v>12.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A12" s="0">
         <x:v>12.1</x:v>
       </x:c>
@@ -638,8 +704,14 @@
       <x:c r="F12" s="0">
         <x:v>13.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G12" s="0">
+        <x:v>12.4</x:v>
+      </x:c>
+      <x:c r="H12" s="0">
+        <x:v>13.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A13" s="0">
         <x:v>13.1</x:v>
       </x:c>
@@ -658,8 +730,14 @@
       <x:c r="F13" s="0">
         <x:v>14.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G13" s="0">
+        <x:v>13.4</x:v>
+      </x:c>
+      <x:c r="H13" s="0">
+        <x:v>14.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A14" s="0">
         <x:v>14.1</x:v>
       </x:c>
@@ -678,8 +756,14 @@
       <x:c r="F14" s="0">
         <x:v>15.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G14" s="0">
+        <x:v>14.4</x:v>
+      </x:c>
+      <x:c r="H14" s="0">
+        <x:v>15.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A15" s="0">
         <x:v>15.1</x:v>
       </x:c>
@@ -698,8 +782,14 @@
       <x:c r="F15" s="0">
         <x:v>16.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G15" s="0">
+        <x:v>15.4</x:v>
+      </x:c>
+      <x:c r="H15" s="0">
+        <x:v>16.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A16" s="0">
         <x:v>16.1</x:v>
       </x:c>
@@ -718,8 +808,14 @@
       <x:c r="F16" s="0">
         <x:v>17.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G16" s="0">
+        <x:v>16.4</x:v>
+      </x:c>
+      <x:c r="H16" s="0">
+        <x:v>17.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A17" s="0">
         <x:v>17.1</x:v>
       </x:c>
@@ -738,8 +834,14 @@
       <x:c r="F17" s="0">
         <x:v>18.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G17" s="0">
+        <x:v>17.4</x:v>
+      </x:c>
+      <x:c r="H17" s="0">
+        <x:v>18.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A18" s="0">
         <x:v>18.1</x:v>
       </x:c>
@@ -758,8 +860,14 @@
       <x:c r="F18" s="0">
         <x:v>19.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G18" s="0">
+        <x:v>18.4</x:v>
+      </x:c>
+      <x:c r="H18" s="0">
+        <x:v>19.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A19" s="0">
         <x:v>19.1</x:v>
       </x:c>
@@ -778,8 +886,14 @@
       <x:c r="F19" s="0">
         <x:v>20.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G19" s="0">
+        <x:v>19.4</x:v>
+      </x:c>
+      <x:c r="H19" s="0">
+        <x:v>20.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A20" s="0">
         <x:v>20.1</x:v>
       </x:c>
@@ -798,8 +912,14 @@
       <x:c r="F20" s="0">
         <x:v>21.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G20" s="0">
+        <x:v>20.4</x:v>
+      </x:c>
+      <x:c r="H20" s="0">
+        <x:v>21.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A21" s="0">
         <x:v>21.1</x:v>
       </x:c>
@@ -818,8 +938,14 @@
       <x:c r="F21" s="0">
         <x:v>22.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G21" s="0">
+        <x:v>21.4</x:v>
+      </x:c>
+      <x:c r="H21" s="0">
+        <x:v>22.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A22" s="0">
         <x:v>22.1</x:v>
       </x:c>
@@ -838,8 +964,14 @@
       <x:c r="F22" s="0">
         <x:v>23.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G22" s="0">
+        <x:v>22.4</x:v>
+      </x:c>
+      <x:c r="H22" s="0">
+        <x:v>23.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A23" s="0">
         <x:v>23.1</x:v>
       </x:c>
@@ -858,8 +990,14 @@
       <x:c r="F23" s="0">
         <x:v>24.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G23" s="0">
+        <x:v>23.4</x:v>
+      </x:c>
+      <x:c r="H23" s="0">
+        <x:v>24.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A24" s="0">
         <x:v>24.1</x:v>
       </x:c>
@@ -878,8 +1016,14 @@
       <x:c r="F24" s="0">
         <x:v>25.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G24" s="0">
+        <x:v>24.4</x:v>
+      </x:c>
+      <x:c r="H24" s="0">
+        <x:v>25.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A25" s="0">
         <x:v>25.1</x:v>
       </x:c>
@@ -898,8 +1042,14 @@
       <x:c r="F25" s="0">
         <x:v>26.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G25" s="0">
+        <x:v>25.4</x:v>
+      </x:c>
+      <x:c r="H25" s="0">
+        <x:v>26.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A26" s="0">
         <x:v>26.1</x:v>
       </x:c>
@@ -918,8 +1068,14 @@
       <x:c r="F26" s="0">
         <x:v>27.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G26" s="0">
+        <x:v>26.4</x:v>
+      </x:c>
+      <x:c r="H26" s="0">
+        <x:v>27.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A27" s="0">
         <x:v>27.1</x:v>
       </x:c>
@@ -938,8 +1094,14 @@
       <x:c r="F27" s="0">
         <x:v>28.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G27" s="0">
+        <x:v>27.4</x:v>
+      </x:c>
+      <x:c r="H27" s="0">
+        <x:v>28.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A28" s="0">
         <x:v>28.1</x:v>
       </x:c>
@@ -958,8 +1120,14 @@
       <x:c r="F28" s="0">
         <x:v>29.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G28" s="0">
+        <x:v>28.4</x:v>
+      </x:c>
+      <x:c r="H28" s="0">
+        <x:v>29.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A29" s="0">
         <x:v>29.1</x:v>
       </x:c>
@@ -978,8 +1146,14 @@
       <x:c r="F29" s="0">
         <x:v>30.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G29" s="0">
+        <x:v>29.4</x:v>
+      </x:c>
+      <x:c r="H29" s="0">
+        <x:v>30.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A30" s="0">
         <x:v>30.1</x:v>
       </x:c>
@@ -998,8 +1172,14 @@
       <x:c r="F30" s="0">
         <x:v>31.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G30" s="0">
+        <x:v>30.4</x:v>
+      </x:c>
+      <x:c r="H30" s="0">
+        <x:v>31.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A31" s="0">
         <x:v>31.1</x:v>
       </x:c>
@@ -1018,8 +1198,14 @@
       <x:c r="F31" s="0">
         <x:v>32.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G31" s="0">
+        <x:v>31.4</x:v>
+      </x:c>
+      <x:c r="H31" s="0">
+        <x:v>32.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A32" s="0">
         <x:v>32.1</x:v>
       </x:c>
@@ -1038,8 +1224,14 @@
       <x:c r="F32" s="0">
         <x:v>33.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G32" s="0">
+        <x:v>32.4</x:v>
+      </x:c>
+      <x:c r="H32" s="0">
+        <x:v>33.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A33" s="0">
         <x:v>33.1</x:v>
       </x:c>
@@ -1058,8 +1250,14 @@
       <x:c r="F33" s="0">
         <x:v>34.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G33" s="0">
+        <x:v>33.4</x:v>
+      </x:c>
+      <x:c r="H33" s="0">
+        <x:v>34.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A34" s="0">
         <x:v>34.1</x:v>
       </x:c>
@@ -1078,8 +1276,14 @@
       <x:c r="F34" s="0">
         <x:v>35.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G34" s="0">
+        <x:v>34.4</x:v>
+      </x:c>
+      <x:c r="H34" s="0">
+        <x:v>35.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A35" s="0">
         <x:v>35.1</x:v>
       </x:c>
@@ -1098,8 +1302,14 @@
       <x:c r="F35" s="0">
         <x:v>36.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G35" s="0">
+        <x:v>35.4</x:v>
+      </x:c>
+      <x:c r="H35" s="0">
+        <x:v>36.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A36" s="0">
         <x:v>36.1</x:v>
       </x:c>
@@ -1118,8 +1328,14 @@
       <x:c r="F36" s="0">
         <x:v>37.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G36" s="0">
+        <x:v>36.4</x:v>
+      </x:c>
+      <x:c r="H36" s="0">
+        <x:v>37.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A37" s="0">
         <x:v>37.1</x:v>
       </x:c>
@@ -1138,8 +1354,14 @@
       <x:c r="F37" s="0">
         <x:v>38.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G37" s="0">
+        <x:v>37.4</x:v>
+      </x:c>
+      <x:c r="H37" s="0">
+        <x:v>38.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A38" s="0">
         <x:v>38.1</x:v>
       </x:c>
@@ -1158,8 +1380,14 @@
       <x:c r="F38" s="0">
         <x:v>39.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G38" s="0">
+        <x:v>38.4</x:v>
+      </x:c>
+      <x:c r="H38" s="0">
+        <x:v>39.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A39" s="0">
         <x:v>39.1</x:v>
       </x:c>
@@ -1178,8 +1406,14 @@
       <x:c r="F39" s="0">
         <x:v>40.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G39" s="0">
+        <x:v>39.4</x:v>
+      </x:c>
+      <x:c r="H39" s="0">
+        <x:v>40.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A40" s="0">
         <x:v>40.1</x:v>
       </x:c>
@@ -1198,8 +1432,14 @@
       <x:c r="F40" s="0">
         <x:v>41.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G40" s="0">
+        <x:v>40.4</x:v>
+      </x:c>
+      <x:c r="H40" s="0">
+        <x:v>41.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A41" s="0">
         <x:v>41.1</x:v>
       </x:c>
@@ -1218,8 +1458,14 @@
       <x:c r="F41" s="0">
         <x:v>42.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G41" s="0">
+        <x:v>41.4</x:v>
+      </x:c>
+      <x:c r="H41" s="0">
+        <x:v>42.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A42" s="0">
         <x:v>42.1</x:v>
       </x:c>
@@ -1238,8 +1484,14 @@
       <x:c r="F42" s="0">
         <x:v>43.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G42" s="0">
+        <x:v>42.4</x:v>
+      </x:c>
+      <x:c r="H42" s="0">
+        <x:v>43.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A43" s="0">
         <x:v>43.1</x:v>
       </x:c>
@@ -1258,8 +1510,14 @@
       <x:c r="F43" s="0">
         <x:v>44.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G43" s="0">
+        <x:v>43.4</x:v>
+      </x:c>
+      <x:c r="H43" s="0">
+        <x:v>44.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A44" s="0">
         <x:v>44.1</x:v>
       </x:c>
@@ -1278,8 +1536,14 @@
       <x:c r="F44" s="0">
         <x:v>45.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G44" s="0">
+        <x:v>44.4</x:v>
+      </x:c>
+      <x:c r="H44" s="0">
+        <x:v>45.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A45" s="0">
         <x:v>45.1</x:v>
       </x:c>
@@ -1298,8 +1562,14 @@
       <x:c r="F45" s="0">
         <x:v>46.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G45" s="0">
+        <x:v>45.4</x:v>
+      </x:c>
+      <x:c r="H45" s="0">
+        <x:v>46.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A46" s="0">
         <x:v>46.1</x:v>
       </x:c>
@@ -1318,8 +1588,14 @@
       <x:c r="F46" s="0">
         <x:v>47.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G46" s="0">
+        <x:v>46.4</x:v>
+      </x:c>
+      <x:c r="H46" s="0">
+        <x:v>47.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A47" s="0">
         <x:v>47.1</x:v>
       </x:c>
@@ -1338,8 +1614,14 @@
       <x:c r="F47" s="0">
         <x:v>48.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G47" s="0">
+        <x:v>47.4</x:v>
+      </x:c>
+      <x:c r="H47" s="0">
+        <x:v>48.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A48" s="0">
         <x:v>48.1</x:v>
       </x:c>
@@ -1358,8 +1640,14 @@
       <x:c r="F48" s="0">
         <x:v>49.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <x:c r="G48" s="0">
+        <x:v>48.4</x:v>
+      </x:c>
+      <x:c r="H48" s="0">
+        <x:v>49.4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A49" s="0">
         <x:v>49.1</x:v>
       </x:c>
@@ -1378,105 +1666,11 @@
       <x:c r="F49" s="0">
         <x:v>50.3</x:v>
       </x:c>
-    </x:row>
-    <x:row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A50" s="0">
-        <x:v>50.1</x:v>
-      </x:c>
-      <x:c r="B50" s="0">
-        <x:v>51.1</x:v>
-      </x:c>
-      <x:c r="C50" s="0">
-        <x:v>50.2</x:v>
-      </x:c>
-      <x:c r="D50" s="0">
-        <x:v>51.2</x:v>
-      </x:c>
-      <x:c r="E50" s="0">
-        <x:v>50.3</x:v>
-      </x:c>
-      <x:c r="F50" s="0">
-        <x:v>51.3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A51" s="0">
-        <x:v>51.1</x:v>
-      </x:c>
-      <x:c r="B51" s="0">
-        <x:v>52.1</x:v>
-      </x:c>
-      <x:c r="C51" s="0">
-        <x:v>51.2</x:v>
-      </x:c>
-      <x:c r="D51" s="0">
-        <x:v>52.2</x:v>
-      </x:c>
-      <x:c r="E51" s="0">
-        <x:v>51.3</x:v>
-      </x:c>
-      <x:c r="F51" s="0">
-        <x:v>52.3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A52" s="0">
-        <x:v>52.1</x:v>
-      </x:c>
-      <x:c r="B52" s="0">
-        <x:v>53.1</x:v>
-      </x:c>
-      <x:c r="C52" s="0">
-        <x:v>52.2</x:v>
-      </x:c>
-      <x:c r="D52" s="0">
-        <x:v>53.2</x:v>
-      </x:c>
-      <x:c r="E52" s="0">
-        <x:v>52.3</x:v>
-      </x:c>
-      <x:c r="F52" s="0">
-        <x:v>53.3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A53" s="0">
-        <x:v>53.1</x:v>
-      </x:c>
-      <x:c r="B53" s="0">
-        <x:v>54.1</x:v>
-      </x:c>
-      <x:c r="C53" s="0">
-        <x:v>53.2</x:v>
-      </x:c>
-      <x:c r="D53" s="0">
-        <x:v>54.2</x:v>
-      </x:c>
-      <x:c r="E53" s="0">
-        <x:v>53.3</x:v>
-      </x:c>
-      <x:c r="F53" s="0">
-        <x:v>54.3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <x:c r="A54" s="0">
-        <x:v>54.1</x:v>
-      </x:c>
-      <x:c r="B54" s="0">
-        <x:v>55.1</x:v>
-      </x:c>
-      <x:c r="C54" s="0">
-        <x:v>54.2</x:v>
-      </x:c>
-      <x:c r="D54" s="0">
-        <x:v>55.2</x:v>
-      </x:c>
-      <x:c r="E54" s="0">
-        <x:v>54.3</x:v>
-      </x:c>
-      <x:c r="F54" s="0">
-        <x:v>55.3</x:v>
+      <x:c r="G49" s="0">
+        <x:v>49.4</x:v>
+      </x:c>
+      <x:c r="H49" s="0">
+        <x:v>50.4</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
